--- a/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_xgb_s.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_xgb_s.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.672183895111084</v>
+        <v>9.545212936401366</v>
       </c>
       <c r="C2">
-        <v>0.1331814705468193</v>
+        <v>0.246989659018217</v>
       </c>
       <c r="D2">
-        <v>0.04979567527770996</v>
+        <v>0.07560229301452637</v>
       </c>
       <c r="E2">
-        <v>0.002233841816336555</v>
+        <v>0.0007186629363781212</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51172499656677</v>
+        <v>18.99866218566894</v>
       </c>
       <c r="C3">
-        <v>0.09991256826567353</v>
+        <v>0.3157175120411819</v>
       </c>
       <c r="D3">
-        <v>0.06634740829467774</v>
+        <v>0.08570208549499511</v>
       </c>
       <c r="E3">
-        <v>0.01287178288173063</v>
+        <v>0.00333890423996767</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.11478972434998</v>
+        <v>37.84063992500305</v>
       </c>
       <c r="C4">
-        <v>0.2719485055088016</v>
+        <v>0.4489342528096236</v>
       </c>
       <c r="D4">
-        <v>0.05740852355957031</v>
+        <v>0.09565062522888183</v>
       </c>
       <c r="E4">
-        <v>0.004175038600856767</v>
+        <v>0.0008402532698655517</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.614414310455322</v>
+        <v>9.570597839355468</v>
       </c>
       <c r="C5">
-        <v>0.2760937677830848</v>
+        <v>0.2495667837357836</v>
       </c>
       <c r="D5">
-        <v>0.05383982658386231</v>
+        <v>0.07840123176574706</v>
       </c>
       <c r="E5">
-        <v>0.008315149405835807</v>
+        <v>0.005314123812032772</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.01303768157959</v>
+        <v>18.85982890129089</v>
       </c>
       <c r="C6">
-        <v>0.08007329712853112</v>
+        <v>0.2491943805852207</v>
       </c>
       <c r="D6">
-        <v>0.05876827239990234</v>
+        <v>0.08733410835266113</v>
       </c>
       <c r="E6">
-        <v>0.003364787613253829</v>
+        <v>0.007215071813758748</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.92109508514404</v>
+        <v>37.56611328125</v>
       </c>
       <c r="C7">
-        <v>0.35057798121719</v>
+        <v>0.259411504457472</v>
       </c>
       <c r="D7">
-        <v>0.06453180313110352</v>
+        <v>0.09597082138061523</v>
       </c>
       <c r="E7">
-        <v>0.003153219221998521</v>
+        <v>0.003127718424336494</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.571501207351685</v>
+        <v>9.471841144561768</v>
       </c>
       <c r="C8">
-        <v>0.1543298339792963</v>
+        <v>0.180590859492369</v>
       </c>
       <c r="D8">
-        <v>0.06627449989318848</v>
+        <v>0.07669234275817871</v>
       </c>
       <c r="E8">
-        <v>0.01357821177457108</v>
+        <v>0.001152510351012882</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.66173677444458</v>
+        <v>18.93122897148132</v>
       </c>
       <c r="C9">
-        <v>0.2040243360369416</v>
+        <v>0.2438891094846643</v>
       </c>
       <c r="D9">
-        <v>0.05361704826354981</v>
+        <v>0.08272271156311035</v>
       </c>
       <c r="E9">
-        <v>0.0008995346562313843</v>
+        <v>0.0008241026445537244</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.22164883613586</v>
+        <v>37.96616687774658</v>
       </c>
       <c r="C10">
-        <v>0.427665473100294</v>
+        <v>0.2930031730388346</v>
       </c>
       <c r="D10">
-        <v>0.06204071044921875</v>
+        <v>0.09622020721435547</v>
       </c>
       <c r="E10">
-        <v>0.001456251083484791</v>
+        <v>0.002421552471392869</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.2183084487915</v>
+        <v>15.17846899032593</v>
       </c>
       <c r="C11">
-        <v>0.4198187509679387</v>
+        <v>0.08847948784660734</v>
       </c>
       <c r="D11">
-        <v>0.05249371528625488</v>
+        <v>0.08204402923583984</v>
       </c>
       <c r="E11">
-        <v>0.00442137832289216</v>
+        <v>0.002827638609206502</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.20151953697205</v>
+        <v>30.56411309242248</v>
       </c>
       <c r="C12">
-        <v>0.2322530905746397</v>
+        <v>0.2158711262822195</v>
       </c>
       <c r="D12">
-        <v>0.05711803436279297</v>
+        <v>0.09160861968994141</v>
       </c>
       <c r="E12">
-        <v>0.001582747361390888</v>
+        <v>0.000945118368185025</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>40.64550290107727</v>
+        <v>60.08016924858093</v>
       </c>
       <c r="C13">
-        <v>0.2993274864908187</v>
+        <v>0.9453166218919624</v>
       </c>
       <c r="D13">
-        <v>0.104233980178833</v>
+        <v>0.1090563774108887</v>
       </c>
       <c r="E13">
-        <v>0.02244048045380377</v>
+        <v>0.005721089389645802</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.36341471672058</v>
+        <v>15.52116842269897</v>
       </c>
       <c r="C14">
-        <v>0.3973381869757302</v>
+        <v>0.07149114884159397</v>
       </c>
       <c r="D14">
-        <v>0.05483250617980957</v>
+        <v>0.08312249183654785</v>
       </c>
       <c r="E14">
-        <v>0.003885129697030591</v>
+        <v>0.002733835941429941</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.76515445709229</v>
+        <v>30.55724029541016</v>
       </c>
       <c r="C15">
-        <v>0.3051704709031567</v>
+        <v>0.241242240953926</v>
       </c>
       <c r="D15">
-        <v>0.05897479057312012</v>
+        <v>0.08839154243469238</v>
       </c>
       <c r="E15">
-        <v>0.00145293355179753</v>
+        <v>0.01160006485586476</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.25670027732849</v>
+        <v>60.2604067325592</v>
       </c>
       <c r="C16">
-        <v>0.4893921825611163</v>
+        <v>0.7447530195922448</v>
       </c>
       <c r="D16">
-        <v>0.07114367485046387</v>
+        <v>0.1127896785736084</v>
       </c>
       <c r="E16">
-        <v>0.00368377540641047</v>
+        <v>0.0007484795689812285</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.14941973686218</v>
+        <v>15.45940093994141</v>
       </c>
       <c r="C17">
-        <v>0.3144585897281595</v>
+        <v>0.1653080184265268</v>
       </c>
       <c r="D17">
-        <v>0.05985116958618164</v>
+        <v>0.07943491935729981</v>
       </c>
       <c r="E17">
-        <v>0.01652451316894285</v>
+        <v>0.00195755290974677</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.19830021858215</v>
+        <v>30.24615058898926</v>
       </c>
       <c r="C18">
-        <v>0.5238718370706416</v>
+        <v>0.4753605826371753</v>
       </c>
       <c r="D18">
-        <v>0.05577068328857422</v>
+        <v>0.0901909351348877</v>
       </c>
       <c r="E18">
-        <v>0.01220223957728866</v>
+        <v>0.001734996663508399</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.52308797836304</v>
+        <v>55.70559296607971</v>
       </c>
       <c r="C19">
-        <v>1.060911807052692</v>
+        <v>0.9884523417688865</v>
       </c>
       <c r="D19">
-        <v>0.05715289115905762</v>
+        <v>0.08775205612182617</v>
       </c>
       <c r="E19">
-        <v>0.01298572933212634</v>
+        <v>0.01412262740310687</v>
       </c>
       <c r="F19">
         <v>2</v>
